--- a/BOP.xlsx
+++ b/BOP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Practica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC6F85-E88A-4393-9FD9-79585AA82558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75766D-03F2-4BA1-B452-064B70E1ED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D5A46E-3919-4119-88EE-D0A05B5D02C7}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -877,192 +877,192 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>157802789</v>
+      <c r="A8">
+        <v>1578.0278870110001</v>
       </c>
       <c r="B8" s="7">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>202139069</v>
+      <c r="A9">
+        <v>2021.3906931399999</v>
       </c>
       <c r="B9" s="7">
         <v>2001</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>245370982</v>
+      <c r="A10">
+        <v>2453.7098217944899</v>
       </c>
       <c r="B10" s="7">
         <v>2002</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>306009519</v>
+      <c r="A11">
+        <v>3060.0951899659999</v>
       </c>
       <c r="B11" s="7">
         <v>2003</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>316989884</v>
+      <c r="A12">
+        <v>3169.8988353209002</v>
       </c>
       <c r="B12" s="7">
         <v>2004</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>331371504</v>
+      <c r="A13">
+        <v>3313.7150372010901</v>
       </c>
       <c r="B13" s="7">
         <v>2005</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>386094341</v>
+      <c r="A14">
+        <v>3860.9434119030898</v>
       </c>
       <c r="B14" s="7">
         <v>2006</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>442973717</v>
+      <c r="A15">
+        <v>4429.7371671103901</v>
       </c>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>478491425</v>
+      <c r="A16">
+        <v>4784.9142455275796</v>
       </c>
       <c r="B16" s="7">
         <v>2008</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>409027952</v>
+      <c r="A17">
+        <v>4090.27951520547</v>
       </c>
       <c r="B17" s="7">
         <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>399634868</v>
+      <c r="A18">
+        <v>3996.3486819166201</v>
       </c>
       <c r="B18" s="7">
         <v>2010</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>406409589</v>
+      <c r="A19">
+        <v>4064.0958923558701</v>
       </c>
       <c r="B19" s="7">
         <v>2011</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>396965921</v>
+      <c r="A20">
+        <v>3969.6592069118001</v>
       </c>
       <c r="B20" s="7">
         <v>2012</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>440104409</v>
+      <c r="A21">
+        <v>4401.0440895683296</v>
       </c>
       <c r="B21" s="7">
         <v>2013</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>409320677</v>
+      <c r="A22">
+        <v>4093.2067723299001</v>
       </c>
       <c r="B22" s="7">
         <v>2014</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>495738534</v>
+      <c r="A23">
+        <v>4957.3853442569798</v>
       </c>
       <c r="B23" s="7">
         <v>2015</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>514747261</v>
+      <c r="A24">
+        <v>5147.47261250667</v>
       </c>
       <c r="B24" s="7">
         <v>2016</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>578372716</v>
+      <c r="A25">
+        <v>5783.7271593570404</v>
       </c>
       <c r="B25" s="7">
         <v>2017</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>663620064</v>
+      <c r="A26">
+        <v>6636.20064197598</v>
       </c>
       <c r="B26" s="7">
         <v>2018</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>708653199</v>
+      <c r="A27">
+        <v>7086.5319948462102</v>
       </c>
       <c r="B27" s="7">
         <v>2019</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>690884596</v>
+      <c r="A28">
+        <v>6908.8459639215898</v>
       </c>
       <c r="B28" s="7">
         <v>2020</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>85972457</v>
+      <c r="A29">
+        <v>8597.2457005699198</v>
       </c>
       <c r="B29" s="7">
         <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>942881251</v>
+      <c r="A30">
+        <v>9428.8125130904991</v>
       </c>
       <c r="B30" s="7">
         <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>100910732</v>
+      <c r="A31">
+        <v>10091.073166128201</v>
       </c>
       <c r="B31" s="7">
         <v>2023</v>
